--- a/src/test/resources/ExcelData/ds-algoregistration.xlsx
+++ b/src/test/resources/ExcelData/ds-algoregistration.xlsx
@@ -64,10 +64,10 @@
     <t>nithi312</t>
   </si>
   <si>
-    <t>dddd109</t>
+    <t>SDET109</t>
   </si>
   <si>
-    <t>New Account Created. You are logged in as cccc109</t>
+    <t>New Account Created. You are logged in as SDET109</t>
   </si>
 </sst>
 </file>
@@ -369,6 +369,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="44.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
